--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-238050.0192866013</v>
+        <v>-240751.2359380578</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>225.403139763615</v>
+        <v>15.62903715749003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>131.3109578483097</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -795,16 +795,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.3737035870745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.818671409020022</v>
+        <v>113.0428563239725</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +838,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>97.10256184832942</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154325</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154325</v>
+        <v>12.41899097776994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863674</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660378</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>294.7373332123644</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>141.3692195499925</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +990,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333232</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951723</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713678</v>
+        <v>4.360182258714161</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.023729469846</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>66.81196643883052</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.39944541611914</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015379</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643863</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315186</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>134.81989564867</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.5406427189001</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>234.5956013770947</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>3.833343243108684</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.4906044404805</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>162.3449961658927</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>88.46928473256116</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>39.90118684021498</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.3223208179804</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>81.29683349370535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2851635392061</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>69.15817284271286</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>134.952913734776</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>35.88641949135518</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>140.7058473537591</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>95.81917536083657</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>61.6215214068367</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>98.03921036659332</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>64.3699333992448</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>42.53134576113629</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>40.15381658332777</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.72582864853729</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703262</v>
+        <v>125.219356024467</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>419.733006062639</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044907</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F2" t="n">
-        <v>248.7770495552872</v>
+        <v>153.355349495461</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>419.733006062639</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>198.0999001474087</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>198.0999001474087</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413021</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>481.2742972781156</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V3" t="n">
-        <v>246.1221890463729</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="W3" t="n">
-        <v>246.1221890463729</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="X3" t="n">
-        <v>246.1221890463729</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>357.3373551528642</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.4778634388467</v>
+        <v>574.701995558152</v>
       </c>
       <c r="C4" t="n">
-        <v>619.5416805109398</v>
+        <v>574.701995558152</v>
       </c>
       <c r="D4" t="n">
-        <v>469.4250410986041</v>
+        <v>574.701995558152</v>
       </c>
       <c r="E4" t="n">
         <v>460.5172922006041</v>
@@ -4483,10 +4483,10 @@
         <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388467</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4778634388467</v>
+        <v>574.701995558152</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388467</v>
+        <v>574.701995558152</v>
       </c>
       <c r="X4" t="n">
-        <v>788.4778634388467</v>
+        <v>574.701995558152</v>
       </c>
       <c r="Y4" t="n">
-        <v>788.4778634388467</v>
+        <v>574.701995558152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1389.996673518258</v>
+        <v>408.450652912269</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.913277711865</v>
+        <v>408.450652912269</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.913277711865</v>
+        <v>50.18495430551849</v>
       </c>
       <c r="E5" t="n">
-        <v>906.1250251136203</v>
+        <v>50.18495430551849</v>
       </c>
       <c r="F5" t="n">
-        <v>518.5616636838904</v>
+        <v>43.23945355631501</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523427</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523427</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523427</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275232</v>
+        <v>93.76641159275005</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245575</v>
+        <v>239.0325989245539</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825656</v>
+        <v>456.1499114825596</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748891</v>
+        <v>729.4041931748806</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202384</v>
+        <v>1011.693823202373</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798418</v>
+        <v>1264.916654798405</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189415</v>
+        <v>1446.5354821894</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518258</v>
+        <v>1389.996673518241</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518258</v>
+        <v>1389.996673518241</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.996673518258</v>
+        <v>1389.996673518241</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.996673518258</v>
+        <v>1058.93378617467</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.996673518258</v>
+        <v>706.1651309045562</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.996673518258</v>
+        <v>706.1651309045562</v>
       </c>
       <c r="Y5" t="n">
-        <v>1389.996673518258</v>
+        <v>408.450652912269</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659.2136040059224</v>
+        <v>714.7535810353857</v>
       </c>
       <c r="C6" t="n">
-        <v>659.2136040059224</v>
+        <v>714.7535810353857</v>
       </c>
       <c r="D6" t="n">
-        <v>510.2791943446712</v>
+        <v>571.9563895707468</v>
       </c>
       <c r="E6" t="n">
-        <v>351.0417393392157</v>
+        <v>412.7189345652913</v>
       </c>
       <c r="F6" t="n">
-        <v>204.5071813661007</v>
+        <v>266.1843765921762</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878736</v>
+        <v>129.0120768548629</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878736</v>
+        <v>30.69501822523427</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523427</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034392</v>
+        <v>174.2721860626383</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516547</v>
+        <v>284.4686930039479</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830072</v>
+        <v>478.9640368352988</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537538</v>
+        <v>725.2877975060434</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259769</v>
+        <v>992.5396600782645</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891496</v>
+        <v>1214.803107243782</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090184</v>
+        <v>1373.856052442469</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.75091126173</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757979</v>
+        <v>1530.346686757962</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152074</v>
+        <v>1385.878273152057</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.973630703758</v>
+        <v>1385.878273152057</v>
       </c>
       <c r="U6" t="n">
-        <v>961.8525470243626</v>
+        <v>1157.757189472661</v>
       </c>
       <c r="V6" t="n">
-        <v>726.7004387926199</v>
+        <v>922.6050812409185</v>
       </c>
       <c r="W6" t="n">
-        <v>726.7004387926199</v>
+        <v>922.6050812409185</v>
       </c>
       <c r="X6" t="n">
-        <v>659.2136040059224</v>
+        <v>714.7535810353857</v>
       </c>
       <c r="Y6" t="n">
-        <v>659.2136040059224</v>
+        <v>714.7535810353857</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>467.4750284458183</v>
+        <v>599.6021044511793</v>
       </c>
       <c r="C7" t="n">
-        <v>298.5388455179115</v>
+        <v>599.6021044511793</v>
       </c>
       <c r="D7" t="n">
-        <v>148.4222061055757</v>
+        <v>449.4854650388436</v>
       </c>
       <c r="E7" t="n">
-        <v>148.4222061055757</v>
+        <v>449.4854650388436</v>
       </c>
       <c r="F7" t="n">
-        <v>148.4222061055757</v>
+        <v>302.5955175409332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.4222061055757</v>
+        <v>302.5955175409332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.4222061055757</v>
+        <v>150.346687027438</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523461</v>
+        <v>32.61949914709676</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523461</v>
+        <v>30.69501822523427</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223271</v>
+        <v>157.432275622326</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830396</v>
+        <v>375.1387655830376</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388163</v>
+        <v>615.0688576388134</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974838</v>
+        <v>854.72856479748</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891669</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934018</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.20053649518</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402743</v>
+        <v>1113.866490402737</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402743</v>
+        <v>1113.866490402737</v>
       </c>
       <c r="T7" t="n">
-        <v>1113.866490402743</v>
+        <v>1113.866490402737</v>
       </c>
       <c r="U7" t="n">
-        <v>1113.866490402743</v>
+        <v>1113.866490402737</v>
       </c>
       <c r="V7" t="n">
-        <v>1113.866490402743</v>
+        <v>859.18200219685</v>
       </c>
       <c r="W7" t="n">
-        <v>824.4493203657828</v>
+        <v>859.18200219685</v>
       </c>
       <c r="X7" t="n">
-        <v>688.2676075893485</v>
+        <v>859.18200219685</v>
       </c>
       <c r="Y7" t="n">
-        <v>467.4750284458183</v>
+        <v>638.3894230533199</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.405431550703</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.405431550703</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.405431550703</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="E8" t="n">
-        <v>846.6171789524592</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="F8" t="n">
-        <v>435.6312741628516</v>
+        <v>703.9167907599715</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>288.2120404842603</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796629</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526515</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.544763526515</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.405431550703</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>668.0249956342917</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>668.0249956342917</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>517.908356221956</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>369.9952626395628</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>223.1053151416525</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>55.11885044993107</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1376.801496983533</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1376.801496983533</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1087.683159487371</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1087.683159487371</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W10" t="n">
-        <v>1087.683159487371</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.683159487371</v>
+        <v>668.0249956342917</v>
       </c>
       <c r="Y10" t="n">
-        <v>1087.683159487371</v>
+        <v>668.0249956342917</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.468935552207</v>
+        <v>2333.452899754456</v>
       </c>
       <c r="C11" t="n">
-        <v>1689.468935552207</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.203236945456</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>945.4149843472123</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>534.4290795576048</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345377</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466905</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.442521123334</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.67386585322</v>
+        <v>3483.657830055469</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.208107592141</v>
+        <v>3110.192071794389</v>
       </c>
       <c r="Y11" t="n">
-        <v>2076.068775616329</v>
+        <v>2720.052739818578</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>488.5008422034065</v>
+        <v>889.4740370626176</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599346</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861145</v>
+        <v>1933.239912720356</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>894.5316017211545</v>
+        <v>264.7318425453614</v>
       </c>
       <c r="C13" t="n">
-        <v>725.5954187932476</v>
+        <v>264.7318425453614</v>
       </c>
       <c r="D13" t="n">
-        <v>575.4787793809119</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>427.5656857985189</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>427.5656857985188</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1949.247121276105</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742808</v>
+        <v>1728.355788710545</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692259</v>
+        <v>1439.264095659996</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.586787486372</v>
+        <v>1184.579607454109</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449412</v>
+        <v>895.1624374171486</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.180066551394</v>
+        <v>667.1728865191312</v>
       </c>
       <c r="Y13" t="n">
-        <v>1076.180066551394</v>
+        <v>446.3803073756011</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>916.3099000622267</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>747.3737171343198</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395909</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4540366416807</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1318.750944035997</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,16 +5513,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286976</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654816</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956955</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>835.583792693556</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>666.6476097656491</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1238.024836667325</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>696.708435085167</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>527.7722521572601</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578603</v>
+        <v>377.6556127449244</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578603</v>
+        <v>377.6556127449244</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578603</v>
+        <v>377.6556127449244</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>878.3568999154068</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.4644740681601</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>465.5282911402533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2317.673418815656</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2098.071953838597</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U28" t="n">
-        <v>1808.996727182795</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.312238976908</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.895068939947</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.90551804193</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.1129388983999</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>701.4712640439267</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>532.5350811160198</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2165.078743814363</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.003517158561</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1621.319028952674</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1103.912308017696</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>883.1197288741664</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400709</v>
+        <v>762.5477693179092</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>762.5477693179092</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138407</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703106</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6974,7 +6974,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851662</v>
+        <v>741.8431516380884</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572593</v>
+        <v>572.9069687101816</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058936</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.356899915406</v>
+        <v>923.4916164683282</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7202,7 +7202,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400718</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703115</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380889</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>572.906968710182</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978463</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>107.6811364303328</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>107.6811364303328</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,19 +7570,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683286</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>1057.955258982918</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>889.0190760550114</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>738.9024366426756</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>590.9893430602825</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>444.0993955623721</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>1460.396302956688</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>1239.603723813158</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636977</v>
+        <v>34.43939438637068</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000944</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>105.546841925445</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>248.1246107473732</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184559</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>260.7716839848518</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>108.7142861779974</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.50068253894317</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>67.31863952450701</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272879</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>98.08864825591498</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016416</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.66255928343638</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.29805489789</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>24.81829093850973</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>121.5862749664517</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>119.404764594808</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>84.24553961896756</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>106.0841272570761</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>211.9838267405002</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>67.54000767002825</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194264</v>
+        <v>40.30478226780187</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1017679.258282504</v>
+        <v>1017679.258282505</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>307890.663699106</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837525</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657085</v>
+        <v>132804.219065704</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929361</v>
+        <v>265413.0723929405</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545779</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417459</v>
+        <v>30877.42926417354</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049527</v>
+        <v>65018.34502049635</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273075</v>
+        <v>81897.40371273091</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.798266485</v>
+        <v>215494.7982664862</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
-        <v>11061.61369214698</v>
+        <v>11061.61369214697</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179356</v>
-      </c>
       <c r="H4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="O4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179353</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667506</v>
+        <v>72593.65038667472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-686472.4857153732</v>
+        <v>-686472.4857153731</v>
       </c>
       <c r="C6" t="n">
-        <v>-113002.0040197624</v>
+        <v>-113002.0040197588</v>
       </c>
       <c r="D6" t="n">
-        <v>-190798.8649711352</v>
+        <v>-190798.8649711396</v>
       </c>
       <c r="E6" t="n">
-        <v>-135055.2895112115</v>
+        <v>-135276.4208251867</v>
       </c>
       <c r="F6" t="n">
-        <v>1082.144037622507</v>
+        <v>1047.406112187571</v>
       </c>
       <c r="G6" t="n">
-        <v>190390.4128080513</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="H6" t="n">
-        <v>190390.4128080518</v>
+        <v>190355.6748826157</v>
       </c>
       <c r="I6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="J6" t="n">
-        <v>121391.2583889374</v>
+        <v>121356.5204635019</v>
       </c>
       <c r="K6" t="n">
-        <v>159512.983543877</v>
+        <v>159478.2456184424</v>
       </c>
       <c r="L6" t="n">
-        <v>125372.0677875562</v>
+        <v>125337.3298621197</v>
       </c>
       <c r="M6" t="n">
-        <v>108493.0090953209</v>
+        <v>108458.2711698851</v>
       </c>
       <c r="N6" t="n">
-        <v>140550.8386760279</v>
+        <v>140516.1007505925</v>
       </c>
       <c r="O6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.674882616</v>
       </c>
       <c r="P6" t="n">
-        <v>190390.4128080515</v>
+        <v>190355.6748826161</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169576</v>
+        <v>717.3319511695724</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154325</v>
+        <v>383.6877278154284</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000976</v>
+        <v>103.2769374000942</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479631</v>
+        <v>216.7329409479667</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139263</v>
+        <v>119.9738478139222</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846062</v>
+        <v>256.8971042846105</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139263</v>
+        <v>119.9738478139222</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846062</v>
+        <v>256.8971042846105</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139263</v>
+        <v>119.9738478139222</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846062</v>
+        <v>256.8971042846105</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>187.431034882095</v>
+        <v>397.20513748822</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>4.711761738113751</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>126.3089921902299</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>137.6152912375491</v>
+        <v>33.3911063225967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>268.1703299226781</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.1883179262789</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233738</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>309.9416328899767</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863728</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>210.4722490968156</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>91.50060544368921</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.07584601464626</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951749</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>138.961018764647</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.4325347658182</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643408</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>90.88975974036717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>31.00706005405391</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>66.42295118531072</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>143.4181659120202</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>39.17185592125702</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.566747394273988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29035,13 +29035,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.883746537365113</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579062</v>
+        <v>29.53316922579047</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.1756383817686</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756937</v>
+        <v>244.7543826756925</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023596</v>
+        <v>366.8233736023578</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952477</v>
+        <v>455.0768316952455</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791148</v>
+        <v>506.3606591791123</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284035</v>
+        <v>514.554104028401</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397479</v>
+        <v>485.8788493974766</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562773</v>
+        <v>414.6863567562753</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868886</v>
+        <v>311.4121838868871</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277614</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020791</v>
+        <v>65.71337422020758</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892102</v>
+        <v>0.230699722989209</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270409</v>
+        <v>1.542940423270401</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.90155619316414</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189785</v>
+        <v>53.12316808189759</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862619</v>
       </c>
       <c r="K6" t="n">
-        <v>249.15104194538</v>
+        <v>249.1510419453788</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438666</v>
+        <v>335.014323043865</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874188</v>
+        <v>390.9459133874169</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189121</v>
+        <v>401.2930884189102</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348678</v>
+        <v>367.104776934866</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190661</v>
+        <v>294.6339480190646</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739551</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392946</v>
+        <v>95.79765189392897</v>
       </c>
       <c r="S6" t="n">
-        <v>28.659441633992</v>
+        <v>28.65944163399186</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989057</v>
+        <v>6.219132670989027</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730527</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141852</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907938</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572062</v>
+        <v>38.90055892572043</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402937</v>
+        <v>91.45394400402891</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401177</v>
+        <v>150.2869235401169</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545441</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773278</v>
+        <v>202.7697513773268</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.9483399022528</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669602</v>
+        <v>182.8373307669593</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.4489225960654</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266054</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565117</v>
+        <v>58.16268574565088</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101765</v>
+        <v>22.54303853101754</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060665</v>
+        <v>5.526983886060638</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864689</v>
+        <v>0.07055724109864654</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>156.457254324057</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>225.1169475382817</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900742</v>
+        <v>63.70847814900623</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557379</v>
+        <v>146.7335225573773</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252605</v>
+        <v>219.3104167252583</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518421</v>
+        <v>276.0144259518396</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318125</v>
+        <v>285.14104043181</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757922</v>
+        <v>255.7806379757899</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010078</v>
+        <v>183.4533610010058</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243913</v>
+        <v>89.10649401243759</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960537</v>
+        <v>145.0274422600041</v>
       </c>
       <c r="K6" t="n">
-        <v>111.309602971021</v>
+        <v>111.3096029710198</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639924</v>
+        <v>196.4599432639908</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654005</v>
+        <v>248.8118794653986</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355789</v>
+        <v>269.9513763355769</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904234</v>
+        <v>224.5085324904215</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047358</v>
+        <v>160.6595406047344</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237836</v>
+        <v>162.5200594133785</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142341</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148612</v>
+        <v>219.9055454148602</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391684</v>
+        <v>242.3536283391674</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814814</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.4224586809989</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609588</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491159</v>
+        <v>22.15508137491105</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>17.9028745441828</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>82.52070309383726</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
